--- a/OnBoard/output/trust/catch/Catch_Trust_33.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_33.xlsx
@@ -1307,10 +1307,10 @@
         </is>
       </c>
       <c r="G23">
-        <v>1.686</v>
+        <v>1.021</v>
       </c>
       <c r="H23">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1354,7 +1354,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>41.01554216867469</v>
+        <v>41.09566265060241</v>
       </c>
     </row>
     <row r="25">
@@ -1395,7 +1395,7 @@
         <v>1896</v>
       </c>
       <c r="I25">
-        <v>41.01554216867469</v>
+        <v>41.09566265060241</v>
       </c>
     </row>
     <row r="26">
@@ -1436,7 +1436,7 @@
         <v>9</v>
       </c>
       <c r="I26">
-        <v>41.01554216867469</v>
+        <v>41.09566265060241</v>
       </c>
     </row>
     <row r="27">
@@ -1477,7 +1477,7 @@
         <v>83</v>
       </c>
       <c r="I27">
-        <v>41.01554216867469</v>
+        <v>41.09566265060241</v>
       </c>
     </row>
     <row r="28">
@@ -1518,7 +1518,7 @@
         <v>19</v>
       </c>
       <c r="I28">
-        <v>41.01554216867469</v>
+        <v>41.09566265060241</v>
       </c>
     </row>
     <row r="29">
@@ -1556,10 +1556,10 @@
         <v>0.031</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I29">
-        <v>41.01554216867469</v>
+        <v>41.09566265060241</v>
       </c>
     </row>
     <row r="30">
@@ -1600,7 +1600,7 @@
         <v>6</v>
       </c>
       <c r="I30">
-        <v>41.01554216867469</v>
+        <v>41.09566265060241</v>
       </c>
     </row>
     <row r="31">
@@ -1641,7 +1641,7 @@
         <v>47</v>
       </c>
       <c r="I31">
-        <v>41.01554216867469</v>
+        <v>41.09566265060241</v>
       </c>
     </row>
     <row r="32">
@@ -1682,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>41.01554216867469</v>
+        <v>41.09566265060241</v>
       </c>
     </row>
     <row r="33">
@@ -1723,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="I33">
-        <v>41.01554216867469</v>
+        <v>41.09566265060241</v>
       </c>
     </row>
     <row r="34">
@@ -1764,7 +1764,7 @@
         <v>3</v>
       </c>
       <c r="I34">
-        <v>41.01554216867469</v>
+        <v>41.09566265060241</v>
       </c>
     </row>
     <row r="35">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>41.01554216867469</v>
+        <v>41.09566265060241</v>
       </c>
     </row>
     <row r="36">
@@ -1846,7 +1846,7 @@
         <v>1044</v>
       </c>
       <c r="I36">
-        <v>41.01554216867469</v>
+        <v>41.09566265060241</v>
       </c>
     </row>
     <row r="37">
@@ -1887,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <v>41.01554216867469</v>
+        <v>41.09566265060241</v>
       </c>
     </row>
     <row r="38">
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="I38">
-        <v>41.01554216867469</v>
+        <v>41.09566265060241</v>
       </c>
     </row>
     <row r="39">
@@ -1969,7 +1969,7 @@
         <v>8</v>
       </c>
       <c r="I39">
-        <v>41.01554216867469</v>
+        <v>41.09566265060241</v>
       </c>
     </row>
     <row r="40">
@@ -2007,10 +2007,10 @@
         <v>0.441</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I40">
-        <v>41.01554216867469</v>
+        <v>41.09566265060241</v>
       </c>
     </row>
     <row r="41">
@@ -2051,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <v>41.01554216867469</v>
+        <v>41.09566265060241</v>
       </c>
     </row>
   </sheetData>
